--- a/src/main/java/qa/Testdata/LoginTestdata.xlsx
+++ b/src/main/java/qa/Testdata/LoginTestdata.xlsx
@@ -1,42 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pourn\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E15E360-0D65-42CE-9C83-F5DFFBD28119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C4C1BD9D-9119-4731-AEE1-666E134F74A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9E59E6E3-C594-4DFD-BFA5-5B67F815BA1A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9E59E6E3-C594-4DFD-BFA5-5B67F815BA1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="UserDetails" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:L16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
   <si>
     <t>Email</t>
   </si>
@@ -51,6 +37,105 @@
   </si>
   <si>
     <t>vinkare@gmail.com</t>
+  </si>
+  <si>
+    <t>pournima</t>
+  </si>
+  <si>
+    <t>priya</t>
+  </si>
+  <si>
+    <t>prachi</t>
+  </si>
+  <si>
+    <t>prabha</t>
+  </si>
+  <si>
+    <t>vijay</t>
+  </si>
+  <si>
+    <t>chandra</t>
+  </si>
+  <si>
+    <t>krishna</t>
+  </si>
+  <si>
+    <t>vimal</t>
+  </si>
+  <si>
+    <t>ajinkya</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>ard</t>
+  </si>
+  <si>
+    <t>arda</t>
+  </si>
+  <si>
+    <t>ardal</t>
+  </si>
+  <si>
+    <t>ardalk</t>
+  </si>
+  <si>
+    <t>ardalka</t>
+  </si>
+  <si>
+    <t>ardalkar</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>ko</t>
+  </si>
+  <si>
+    <t>kol</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Postalcode</t>
+  </si>
+  <si>
+    <t>pvijayrdalkar112297@gmail.com</t>
+  </si>
+  <si>
+    <t>piyagosh561@gmail.com</t>
+  </si>
+  <si>
+    <t>vinkre@gmail.com</t>
+  </si>
+  <si>
+    <t>TechM</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Kolhapur</t>
+  </si>
+  <si>
+    <t>Ajara</t>
   </si>
 </sst>
 </file>
@@ -464,9 +549,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE192334-6011-4D4A-9E82-6E531D5A90A0}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -510,4 +598,326 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F49B06-76B1-4574-9B98-A4B4BEEB65E9}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.21875" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2">
+        <v>9176578976</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2">
+        <v>411098</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2">
+        <v>8176543890</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="2">
+        <v>412000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2">
+        <v>8690444444</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="2">
+        <v>417999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2">
+        <v>9132559988</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="2">
+        <v>411098</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2">
+        <v>8171118888</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="2">
+        <v>412000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2">
+        <v>9765443333</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="2">
+        <v>417999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2">
+        <v>9788888800</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="2">
+        <v>411098</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2">
+        <v>99999991199</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="2">
+        <v>412000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2">
+        <v>91999999998</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="2">
+        <v>417999</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{7594FE1B-DED6-4BAB-B7E9-4CB9BE835BE9}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{E955A498-2924-41C3-BBFF-7FA976430705}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{53447EC9-0373-4E91-A7FB-532EFDFA558D}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{8D228BBC-EFD0-4E29-9F07-7942AA97CD41}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{CE3D29A5-FB3E-4AA9-8A52-694C129530E9}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{C6D5F988-63CE-4FCC-A17C-BB79139FFEBA}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{AD7C4CC8-3572-4CFF-88E2-A45AED0B452E}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{B6B6C269-9DDC-40CB-B5C7-0FBE35CD8E52}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{6EBFCCFD-9F9F-4140-B52C-6C3AF1D3AF3A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>